--- a/Public_Equity_Orderbook.xlsx
+++ b/Public_Equity_Orderbook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MilesChild/Desktop/codeProjects/NTS/SVF/OpenBBTerminal/portfolio/holdings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MilesChild/Desktop/codeProjects/NTS/SVF/OpenBBTerminal/svf-intern-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCC706B-4FB1-224A-BF90-15D35611EBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B610AF9F-4FE6-3C46-80E0-D368E8CC55AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{09AD307C-AFDD-734B-8A1F-F9F0177E6514}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="576">
   <si>
     <t>Country</t>
   </si>
@@ -1777,12 +1777,6 @@
   </si>
   <si>
     <t>MAXR</t>
-  </si>
-  <si>
-    <t>Crypto</t>
-  </si>
-  <si>
-    <t>USDC</t>
   </si>
 </sst>
 </file>
@@ -2207,7 +2201,7 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A7" sqref="A7:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2497,45 +2491,20 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <v>44562</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>576</v>
-      </c>
+      <c r="A7" s="10"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="H7" s="9">
-        <v>1</v>
-      </c>
-      <c r="I7" s="9">
-        <v>130980</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <f t="shared" si="1"/>
-        <v>130980</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
